--- a/FINAL/old run/output/0_3.xlsx
+++ b/FINAL/old run/output/0_3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,6 +486,75 @@
         <v>0.87</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.04</v>
+      </c>
+      <c r="E6">
+        <v>0.97</v>
+      </c>
+      <c r="F6">
+        <v>0.97</v>
+      </c>
+      <c r="G6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.01</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
